--- a/teacher_load.xlsx
+++ b/teacher_load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TeacherName</t>
+          <t>Teacher Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,18 +457,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ms. Baker</t>
+          <t>Mr. Adams</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ms. Baker</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/teacher_load.xlsx
+++ b/teacher_load.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TeacherID</t>
+          <t>Teacher ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Subject Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Number of Classes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Students</t>
         </is>
       </c>
     </row>
@@ -464,11 +464,13 @@
           <t>Mr. Adams</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -480,11 +482,13 @@
           <t>Ms. Baker</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
